--- a/Accounts-Schedules/Sonnen Weekly Schedule for Transportation 2025 .. (2).xlsx
+++ b/Accounts-Schedules/Sonnen Weekly Schedule for Transportation 2025 .. (2).xlsx
@@ -582,7 +582,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -608,13 +608,6 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -761,7 +754,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -783,6 +776,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1149,28 +1160,31 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1179,122 +1193,119 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1326,10 +1337,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,17 +1702,17 @@
   <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:E$1048576"/>
+      <selection activeCell="P60" sqref="P60:Q60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.2727272727273" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.3636363636364" style="3" customWidth="1"/>
-    <col min="3" max="3" width="20.2727272727273" style="3" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="12.275" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.3666666666667" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.275" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.2" style="3" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5090909090909" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="19" width="12.2727272727273" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.5083333333333" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="19" width="12.275" style="3" customWidth="1"/>
     <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1791,4790 +1814,4790 @@
       <c r="A3" s="10">
         <v>10203443</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G3" s="12">
         <v>0.75</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I3" s="12">
         <v>0.75</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K3" s="12">
         <v>0.75</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M3" s="12">
         <v>0.75</v>
       </c>
-      <c r="N3" s="12">
+      <c r="N3" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O3" s="12">
         <v>0.75</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S3" s="10"/>
+      <c r="P3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="14"/>
     </row>
     <row r="4" ht="16" spans="1:19">
       <c r="A4" s="10">
         <v>10318434</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L4" s="12">
+      <c r="L4" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N4" s="12">
+      <c r="N4" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O4" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="10"/>
+      <c r="P4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S4" s="14"/>
     </row>
     <row r="5" ht="16" spans="1:19">
       <c r="A5" s="10">
         <v>10318430</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>0.375</v>
       </c>
       <c r="G5" s="12">
         <v>0.75</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="11">
         <v>0.375</v>
       </c>
       <c r="I5" s="12">
         <v>0.75</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>0.375</v>
       </c>
       <c r="K5" s="12">
         <v>0.75</v>
       </c>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>0.375</v>
       </c>
       <c r="M5" s="12">
         <v>0.75</v>
       </c>
-      <c r="N5" s="12">
+      <c r="N5" s="11">
         <v>0.375</v>
       </c>
       <c r="O5" s="12">
         <v>0.75</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S5" s="10"/>
+      <c r="P5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S5" s="14"/>
     </row>
     <row r="6" ht="16" spans="1:19">
       <c r="A6" s="10">
         <v>10318429</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G6" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I6" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K6" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M6" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N6" s="12">
+      <c r="N6" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O6" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S6" s="10"/>
+      <c r="P6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S6" s="14"/>
     </row>
     <row r="7" ht="16" spans="1:19">
       <c r="A7" s="10">
         <v>10318431</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>0.375</v>
       </c>
       <c r="G7" s="12">
         <v>0.75</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="11">
         <v>0.375</v>
       </c>
       <c r="I7" s="12">
         <v>0.75</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>0.375</v>
       </c>
       <c r="K7" s="12">
         <v>0.75</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>0.375</v>
       </c>
       <c r="M7" s="12">
         <v>0.75</v>
       </c>
-      <c r="N7" s="12">
+      <c r="N7" s="11">
         <v>0.375</v>
       </c>
       <c r="O7" s="12">
         <v>0.75</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S7" s="10"/>
+      <c r="P7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S7" s="14"/>
     </row>
     <row r="8" ht="16" spans="1:19">
       <c r="A8" s="10">
         <v>10306614</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.375</v>
       </c>
       <c r="G8" s="12">
         <v>0.75</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.375</v>
       </c>
       <c r="I8" s="12">
         <v>0.75</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>0.375</v>
       </c>
       <c r="K8" s="12">
         <v>0.75</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>0.375</v>
       </c>
       <c r="M8" s="12">
         <v>0.75</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>0.375</v>
       </c>
       <c r="O8" s="12">
         <v>0.75</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" s="10"/>
+      <c r="P8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" s="14"/>
     </row>
     <row r="9" ht="16" spans="1:19">
       <c r="A9" s="10">
         <v>10326077</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>0.375</v>
       </c>
       <c r="G9" s="12">
         <v>0.75</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>0.375</v>
       </c>
       <c r="I9" s="12">
         <v>0.75</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>0.375</v>
       </c>
       <c r="K9" s="12">
         <v>0.75</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>0.375</v>
       </c>
       <c r="M9" s="12">
         <v>0.75</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>0.375</v>
       </c>
       <c r="O9" s="12">
         <v>0.75</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S9" s="10"/>
+      <c r="P9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S9" s="14"/>
     </row>
     <row r="10" ht="16" spans="1:19">
       <c r="A10" s="10">
         <v>10326078</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G10" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I10" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K10" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M10" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O10" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S10" s="10"/>
+      <c r="P10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="14"/>
     </row>
     <row r="11" ht="16" spans="1:19">
       <c r="A11" s="10">
         <v>10326135</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>0.375</v>
       </c>
       <c r="G11" s="12">
         <v>0.75</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>0.375</v>
       </c>
       <c r="I11" s="12">
         <v>0.75</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>0.375</v>
       </c>
       <c r="K11" s="12">
         <v>0.75</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>0.375</v>
       </c>
       <c r="M11" s="12">
         <v>0.75</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>0.375</v>
       </c>
       <c r="O11" s="12">
         <v>0.75</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S11" s="10"/>
+      <c r="P11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S11" s="14"/>
     </row>
     <row r="12" ht="16" spans="1:19">
       <c r="A12" s="10">
         <v>10326133</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>0.375</v>
       </c>
       <c r="G12" s="12">
         <v>0.75</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>0.375</v>
       </c>
       <c r="I12" s="12">
         <v>0.75</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>0.375</v>
       </c>
       <c r="K12" s="12">
         <v>0.75</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>0.375</v>
       </c>
       <c r="M12" s="12">
         <v>0.75</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>0.375</v>
       </c>
       <c r="O12" s="12">
         <v>0.75</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S12" s="10"/>
+      <c r="P12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S12" s="14"/>
     </row>
     <row r="13" ht="16" spans="1:19">
       <c r="A13" s="10">
         <v>10326136</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0.375</v>
       </c>
       <c r="G13" s="12">
         <v>0.75</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>0.375</v>
       </c>
       <c r="I13" s="12">
         <v>0.75</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>0.375</v>
       </c>
       <c r="K13" s="12">
         <v>0.75</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>0.375</v>
       </c>
       <c r="M13" s="12">
         <v>0.75</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>0.375</v>
       </c>
       <c r="O13" s="12">
         <v>0.75</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S13" s="10"/>
+      <c r="P13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S13" s="14"/>
     </row>
     <row r="14" ht="16" spans="1:19">
       <c r="A14" s="10">
         <v>10326121</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>0.375</v>
       </c>
       <c r="G14" s="12">
         <v>0.75</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>0.375</v>
       </c>
       <c r="I14" s="12">
         <v>0.75</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>0.375</v>
       </c>
       <c r="K14" s="12">
         <v>0.75</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="11">
         <v>0.375</v>
       </c>
       <c r="M14" s="12">
         <v>0.75</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N14" s="11">
         <v>0.375</v>
       </c>
       <c r="O14" s="12">
         <v>0.75</v>
       </c>
-      <c r="P14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S14" s="10"/>
+      <c r="P14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S14" s="14"/>
     </row>
     <row r="15" ht="16" spans="1:19">
       <c r="A15" s="10">
         <v>10326123</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>0.375</v>
       </c>
       <c r="G15" s="12">
         <v>0.75</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="11">
         <v>0.375</v>
       </c>
       <c r="I15" s="12">
         <v>0.75</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.375</v>
       </c>
       <c r="K15" s="12">
         <v>0.75</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="11">
         <v>0.375</v>
       </c>
       <c r="M15" s="12">
         <v>0.75</v>
       </c>
-      <c r="N15" s="12">
+      <c r="N15" s="11">
         <v>0.375</v>
       </c>
       <c r="O15" s="12">
         <v>0.75</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" s="10"/>
+      <c r="P15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="14"/>
     </row>
     <row r="16" ht="16" spans="1:19">
       <c r="A16" s="10">
         <v>10326124</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>0.375</v>
       </c>
       <c r="G16" s="12">
         <v>0.75</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="11">
         <v>0.375</v>
       </c>
       <c r="I16" s="12">
         <v>0.75</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>0.375</v>
       </c>
       <c r="K16" s="12">
         <v>0.75</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="11">
         <v>0.375</v>
       </c>
       <c r="M16" s="12">
         <v>0.75</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N16" s="11">
         <v>0.375</v>
       </c>
       <c r="O16" s="12">
         <v>0.75</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" s="10"/>
+      <c r="P16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S16" s="14"/>
     </row>
     <row r="17" ht="16" spans="1:19">
       <c r="A17" s="10">
         <v>10331610</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>0.375</v>
       </c>
       <c r="G17" s="12">
         <v>0.75</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="11">
         <v>0.375</v>
       </c>
       <c r="I17" s="12">
         <v>0.75</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.375</v>
       </c>
       <c r="K17" s="12">
         <v>0.75</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="11">
         <v>0.375</v>
       </c>
       <c r="M17" s="12">
         <v>0.75</v>
       </c>
-      <c r="N17" s="12">
+      <c r="N17" s="11">
         <v>0.375</v>
       </c>
       <c r="O17" s="12">
         <v>0.75</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S17" s="10"/>
+      <c r="P17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="14"/>
     </row>
     <row r="18" ht="16" spans="1:19">
       <c r="A18" s="10">
         <v>10331630</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G18" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I18" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K18" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M18" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N18" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O18" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" s="10"/>
+      <c r="P18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S18" s="14"/>
     </row>
     <row r="19" ht="16" spans="1:19">
       <c r="A19" s="10">
         <v>10331617</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="E19" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G19" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H19" s="12">
+      <c r="H19" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I19" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K19" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M19" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N19" s="12">
+      <c r="N19" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O19" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S19" s="10"/>
+      <c r="P19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S19" s="14"/>
     </row>
     <row r="20" ht="16" spans="1:19">
       <c r="A20" s="10">
         <v>10331639</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>0.375</v>
       </c>
       <c r="G20" s="12">
         <v>0.75</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="11">
         <v>0.375</v>
       </c>
       <c r="I20" s="12">
         <v>0.75</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>0.375</v>
       </c>
       <c r="K20" s="12">
         <v>0.75</v>
       </c>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <v>0.375</v>
       </c>
       <c r="M20" s="12">
         <v>0.75</v>
       </c>
-      <c r="N20" s="12">
+      <c r="N20" s="11">
         <v>0.375</v>
       </c>
       <c r="O20" s="12">
         <v>0.75</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S20" s="10"/>
+      <c r="P20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" s="14"/>
     </row>
     <row r="21" ht="16" spans="1:19">
       <c r="A21" s="10">
         <v>10331653</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="E21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>0.375</v>
       </c>
       <c r="G21" s="12">
         <v>0.75</v>
       </c>
-      <c r="H21" s="12">
+      <c r="H21" s="11">
         <v>0.375</v>
       </c>
       <c r="I21" s="12">
         <v>0.75</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>0.375</v>
       </c>
       <c r="K21" s="12">
         <v>0.75</v>
       </c>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <v>0.375</v>
       </c>
       <c r="M21" s="12">
         <v>0.75</v>
       </c>
-      <c r="N21" s="12">
+      <c r="N21" s="11">
         <v>0.375</v>
       </c>
       <c r="O21" s="12">
         <v>0.75</v>
       </c>
-      <c r="P21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" s="10"/>
+      <c r="P21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S21" s="14"/>
     </row>
     <row r="22" ht="16" spans="1:19">
       <c r="A22" s="10">
         <v>10330115</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>0.375</v>
       </c>
       <c r="G22" s="12">
         <v>0.75</v>
       </c>
-      <c r="H22" s="12">
+      <c r="H22" s="11">
         <v>0.375</v>
       </c>
       <c r="I22" s="12">
         <v>0.75</v>
       </c>
-      <c r="J22" s="12">
+      <c r="J22" s="11">
         <v>0.375</v>
       </c>
       <c r="K22" s="12">
         <v>0.75</v>
       </c>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <v>0.375</v>
       </c>
       <c r="M22" s="12">
         <v>0.75</v>
       </c>
-      <c r="N22" s="12">
+      <c r="N22" s="11">
         <v>0.375</v>
       </c>
       <c r="O22" s="12">
         <v>0.75</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S22" s="10"/>
+      <c r="P22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S22" s="14"/>
     </row>
     <row r="23" ht="16" spans="1:19">
       <c r="A23" s="10">
         <v>10330118</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>0.375</v>
       </c>
       <c r="G23" s="12">
         <v>0.75</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="11">
         <v>0.375</v>
       </c>
       <c r="I23" s="12">
         <v>0.75</v>
       </c>
-      <c r="J23" s="12">
+      <c r="J23" s="11">
         <v>0.375</v>
       </c>
       <c r="K23" s="12">
         <v>0.75</v>
       </c>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <v>0.375</v>
       </c>
       <c r="M23" s="12">
         <v>0.75</v>
       </c>
-      <c r="N23" s="12">
+      <c r="N23" s="11">
         <v>0.375</v>
       </c>
       <c r="O23" s="12">
         <v>0.75</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S23" s="10"/>
+      <c r="P23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S23" s="14"/>
     </row>
     <row r="24" ht="16" spans="1:19">
       <c r="A24" s="10">
         <v>10330125</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>0.375</v>
       </c>
       <c r="G24" s="12">
         <v>0.75</v>
       </c>
-      <c r="H24" s="12">
+      <c r="H24" s="11">
         <v>0.375</v>
       </c>
       <c r="I24" s="12">
         <v>0.75</v>
       </c>
-      <c r="J24" s="12">
+      <c r="J24" s="11">
         <v>0.375</v>
       </c>
       <c r="K24" s="12">
         <v>0.75</v>
       </c>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <v>0.375</v>
       </c>
       <c r="M24" s="12">
         <v>0.75</v>
       </c>
-      <c r="N24" s="12">
+      <c r="N24" s="11">
         <v>0.375</v>
       </c>
       <c r="O24" s="12">
         <v>0.75</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S24" s="10"/>
+      <c r="P24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S24" s="14"/>
     </row>
     <row r="25" ht="16" spans="1:19">
       <c r="A25" s="10">
         <v>10330126</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G25" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H25" s="12">
+      <c r="H25" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I25" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K25" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M25" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N25" s="12">
+      <c r="N25" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O25" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S25" s="10"/>
+      <c r="P25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S25" s="14"/>
     </row>
     <row r="26" ht="16" spans="1:19">
       <c r="A26" s="10">
         <v>10329214</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E26" s="11" t="s">
+      <c r="E26" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>0.375</v>
       </c>
       <c r="G26" s="12">
         <v>0.75</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="11">
         <v>0.375</v>
       </c>
       <c r="I26" s="12">
         <v>0.75</v>
       </c>
-      <c r="J26" s="12">
+      <c r="J26" s="11">
         <v>0.375</v>
       </c>
       <c r="K26" s="12">
         <v>0.75</v>
       </c>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <v>0.375</v>
       </c>
       <c r="M26" s="12">
         <v>0.75</v>
       </c>
-      <c r="N26" s="12">
+      <c r="N26" s="11">
         <v>0.375</v>
       </c>
       <c r="O26" s="12">
         <v>0.75</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S26" s="10"/>
+      <c r="P26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S26" s="14"/>
     </row>
     <row r="27" ht="16" spans="1:19">
       <c r="A27" s="10">
         <v>10329216</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>0.375</v>
       </c>
       <c r="G27" s="12">
         <v>0.75</v>
       </c>
-      <c r="H27" s="12">
+      <c r="H27" s="11">
         <v>0.375</v>
       </c>
       <c r="I27" s="12">
         <v>0.75</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="11">
         <v>0.375</v>
       </c>
       <c r="K27" s="12">
         <v>0.75</v>
       </c>
-      <c r="L27" s="12">
+      <c r="L27" s="11">
         <v>0.375</v>
       </c>
       <c r="M27" s="12">
         <v>0.75</v>
       </c>
-      <c r="N27" s="12">
+      <c r="N27" s="11">
         <v>0.375</v>
       </c>
       <c r="O27" s="12">
         <v>0.75</v>
       </c>
-      <c r="P27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S27" s="10"/>
+      <c r="P27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S27" s="14"/>
     </row>
     <row r="28" ht="16" spans="1:19">
       <c r="A28" s="10">
         <v>10329223</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G28" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I28" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K28" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L28" s="12">
+      <c r="L28" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M28" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N28" s="12">
+      <c r="N28" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O28" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" s="10"/>
+      <c r="P28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S28" s="14"/>
     </row>
     <row r="29" ht="16" spans="1:19">
       <c r="A29" s="10">
         <v>10329247</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G29" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I29" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K29" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L29" s="12">
+      <c r="L29" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M29" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N29" s="12">
+      <c r="N29" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O29" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S29" s="10"/>
+      <c r="P29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S29" s="14"/>
     </row>
     <row r="30" ht="16" spans="1:19">
       <c r="A30" s="10">
         <v>10329241</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>0.375</v>
       </c>
       <c r="G30" s="12">
         <v>0.75</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>0.375</v>
       </c>
       <c r="I30" s="12">
         <v>0.75</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>0.375</v>
       </c>
       <c r="K30" s="12">
         <v>0.75</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="11">
         <v>0.375</v>
       </c>
       <c r="M30" s="12">
         <v>0.75</v>
       </c>
-      <c r="N30" s="12">
+      <c r="N30" s="11">
         <v>0.375</v>
       </c>
       <c r="O30" s="12">
         <v>0.75</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S30" s="10"/>
+      <c r="P30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S30" s="14"/>
     </row>
     <row r="31" ht="16" spans="1:19">
       <c r="A31" s="10">
         <v>10329480</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>0.375</v>
       </c>
       <c r="G31" s="12">
         <v>0.75</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>0.375</v>
       </c>
       <c r="I31" s="12">
         <v>0.75</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>0.375</v>
       </c>
       <c r="K31" s="12">
         <v>0.75</v>
       </c>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <v>0.375</v>
       </c>
       <c r="M31" s="12">
         <v>0.75</v>
       </c>
-      <c r="N31" s="12">
+      <c r="N31" s="11">
         <v>0.375</v>
       </c>
       <c r="O31" s="12">
         <v>0.75</v>
       </c>
-      <c r="P31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="10"/>
+      <c r="P31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S31" s="14"/>
     </row>
     <row r="32" ht="16" spans="1:19">
       <c r="A32" s="10">
         <v>10329900</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32" s="11">
         <v>0.375</v>
       </c>
       <c r="G32" s="12">
         <v>0.75</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>0.375</v>
       </c>
       <c r="I32" s="12">
         <v>0.75</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>0.375</v>
       </c>
       <c r="K32" s="12">
         <v>0.75</v>
       </c>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <v>0.375</v>
       </c>
       <c r="M32" s="12">
         <v>0.75</v>
       </c>
-      <c r="N32" s="12">
+      <c r="N32" s="11">
         <v>0.375</v>
       </c>
       <c r="O32" s="12">
         <v>0.75</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S32" s="10"/>
+      <c r="P32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S32" s="14"/>
     </row>
     <row r="33" ht="16" spans="1:19">
       <c r="A33" s="10">
         <v>10329245</v>
       </c>
-      <c r="B33" s="11" t="s">
+      <c r="B33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="11" t="s">
+      <c r="E33" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>0.375</v>
       </c>
       <c r="G33" s="12">
         <v>0.75</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>0.375</v>
       </c>
       <c r="I33" s="12">
         <v>0.75</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>0.375</v>
       </c>
       <c r="K33" s="12">
         <v>0.75</v>
       </c>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <v>0.375</v>
       </c>
       <c r="M33" s="12">
         <v>0.75</v>
       </c>
-      <c r="N33" s="12">
+      <c r="N33" s="11">
         <v>0.375</v>
       </c>
       <c r="O33" s="12">
         <v>0.75</v>
       </c>
-      <c r="P33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S33" s="10"/>
+      <c r="P33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S33" s="14"/>
     </row>
     <row r="34" ht="16" spans="1:19">
       <c r="A34" s="10">
         <v>10329242</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>0.375</v>
       </c>
       <c r="G34" s="12">
         <v>0.75</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>0.375</v>
       </c>
       <c r="I34" s="12">
         <v>0.75</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>0.375</v>
       </c>
       <c r="K34" s="12">
         <v>0.75</v>
       </c>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <v>0.375</v>
       </c>
       <c r="M34" s="12">
         <v>0.75</v>
       </c>
-      <c r="N34" s="12">
+      <c r="N34" s="11">
         <v>0.375</v>
       </c>
       <c r="O34" s="12">
         <v>0.75</v>
       </c>
-      <c r="P34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S34" s="10"/>
+      <c r="P34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S34" s="14"/>
     </row>
     <row r="35" ht="16" spans="1:19">
       <c r="A35" s="10">
         <v>10329272</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="E35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>0.375</v>
       </c>
       <c r="G35" s="12">
         <v>0.75</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>0.375</v>
       </c>
       <c r="I35" s="12">
         <v>0.75</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>0.375</v>
       </c>
       <c r="K35" s="12">
         <v>0.75</v>
       </c>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <v>0.375</v>
       </c>
       <c r="M35" s="12">
         <v>0.75</v>
       </c>
-      <c r="N35" s="12">
+      <c r="N35" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O35" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S35" s="10"/>
+      <c r="P35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S35" s="14"/>
     </row>
     <row r="36" ht="16" spans="1:19">
       <c r="A36" s="10">
         <v>10329290</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="11" t="s">
+      <c r="E36" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>0.375</v>
       </c>
       <c r="G36" s="12">
         <v>0.75</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>0.375</v>
       </c>
       <c r="I36" s="12">
         <v>0.75</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="11">
         <v>0.375</v>
       </c>
       <c r="K36" s="12">
         <v>0.75</v>
       </c>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <v>0.375</v>
       </c>
       <c r="M36" s="12">
         <v>0.75</v>
       </c>
-      <c r="N36" s="12">
+      <c r="N36" s="11">
         <v>0.375</v>
       </c>
       <c r="O36" s="12">
         <v>0.75</v>
       </c>
-      <c r="P36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S36" s="10"/>
+      <c r="P36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S36" s="14"/>
     </row>
     <row r="37" ht="16" spans="1:19">
       <c r="A37" s="10">
         <v>10329237</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>0.375</v>
       </c>
       <c r="G37" s="12">
         <v>0.75</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>0.375</v>
       </c>
       <c r="I37" s="12">
         <v>0.75</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="11">
         <v>0.375</v>
       </c>
       <c r="K37" s="12">
         <v>0.75</v>
       </c>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <v>0.375</v>
       </c>
       <c r="M37" s="12">
         <v>0.75</v>
       </c>
-      <c r="N37" s="12">
+      <c r="N37" s="11">
         <v>0.375</v>
       </c>
       <c r="O37" s="12">
         <v>0.75</v>
       </c>
-      <c r="P37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S37" s="10"/>
+      <c r="P37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q37" s="14"/>
+      <c r="R37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S37" s="14"/>
     </row>
     <row r="38" ht="16" spans="1:19">
       <c r="A38" s="10">
         <v>10329236</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>0.375</v>
       </c>
       <c r="G38" s="12">
         <v>0.75</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>0.375</v>
       </c>
       <c r="I38" s="12">
         <v>0.75</v>
       </c>
-      <c r="J38" s="12">
+      <c r="J38" s="11">
         <v>0.375</v>
       </c>
       <c r="K38" s="12">
         <v>0.75</v>
       </c>
-      <c r="L38" s="12">
+      <c r="L38" s="11">
         <v>0.375</v>
       </c>
       <c r="M38" s="12">
         <v>0.75</v>
       </c>
-      <c r="N38" s="12">
+      <c r="N38" s="11">
         <v>0.375</v>
       </c>
       <c r="O38" s="12">
         <v>0.75</v>
       </c>
-      <c r="P38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S38" s="10"/>
+      <c r="P38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S38" s="14"/>
     </row>
     <row r="39" ht="16" spans="1:19">
       <c r="A39" s="10">
         <v>10329234</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>0.375</v>
       </c>
       <c r="G39" s="12">
         <v>0.75</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>0.375</v>
       </c>
       <c r="I39" s="12">
         <v>0.75</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="11">
         <v>0.375</v>
       </c>
       <c r="K39" s="12">
         <v>0.75</v>
       </c>
-      <c r="L39" s="12">
+      <c r="L39" s="11">
         <v>0.375</v>
       </c>
       <c r="M39" s="12">
         <v>0.75</v>
       </c>
-      <c r="N39" s="12">
+      <c r="N39" s="11">
         <v>0.375</v>
       </c>
       <c r="O39" s="12">
         <v>0.75</v>
       </c>
-      <c r="P39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S39" s="10"/>
+      <c r="P39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S39" s="14"/>
     </row>
     <row r="40" ht="16" spans="1:19">
       <c r="A40" s="10">
         <v>10329503</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>0.375</v>
       </c>
       <c r="G40" s="12">
         <v>0.75</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>0.375</v>
       </c>
       <c r="I40" s="12">
         <v>0.75</v>
       </c>
-      <c r="J40" s="12">
+      <c r="J40" s="11">
         <v>0.375</v>
       </c>
       <c r="K40" s="12">
         <v>0.75</v>
       </c>
-      <c r="L40" s="12">
+      <c r="L40" s="11">
         <v>0.375</v>
       </c>
       <c r="M40" s="12">
         <v>0.75</v>
       </c>
-      <c r="N40" s="12">
+      <c r="N40" s="11">
         <v>0.375</v>
       </c>
       <c r="O40" s="12">
         <v>0.75</v>
       </c>
-      <c r="P40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S40" s="10"/>
+      <c r="P40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S40" s="14"/>
     </row>
     <row r="41" ht="16" spans="1:19">
       <c r="A41" s="10">
         <v>10331612</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>0.375</v>
       </c>
       <c r="G41" s="12">
         <v>0.75</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>0.375</v>
       </c>
       <c r="I41" s="12">
         <v>0.75</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="11">
         <v>0.375</v>
       </c>
       <c r="K41" s="12">
         <v>0.75</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <v>0.375</v>
       </c>
       <c r="M41" s="12">
         <v>0.75</v>
       </c>
-      <c r="N41" s="12">
+      <c r="N41" s="11">
         <v>0.375</v>
       </c>
       <c r="O41" s="12">
         <v>0.75</v>
       </c>
-      <c r="P41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S41" s="10"/>
+      <c r="P41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S41" s="14"/>
     </row>
     <row r="42" ht="16" spans="1:19">
       <c r="A42" s="10">
         <v>10331587</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>0.375</v>
       </c>
       <c r="G42" s="12">
         <v>0.75</v>
       </c>
-      <c r="H42" s="12">
+      <c r="H42" s="11">
         <v>0.375</v>
       </c>
       <c r="I42" s="12">
         <v>0.75</v>
       </c>
-      <c r="J42" s="12">
+      <c r="J42" s="11">
         <v>0.375</v>
       </c>
       <c r="K42" s="12">
         <v>0.75</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <v>0.375</v>
       </c>
       <c r="M42" s="12">
         <v>0.75</v>
       </c>
-      <c r="N42" s="12">
+      <c r="N42" s="11">
         <v>0.375</v>
       </c>
       <c r="O42" s="12">
         <v>0.75</v>
       </c>
-      <c r="P42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S42" s="10"/>
+      <c r="P42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S42" s="14"/>
     </row>
     <row r="43" ht="16" spans="1:19">
       <c r="A43" s="10">
         <v>10331605</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <v>0.375</v>
       </c>
       <c r="G43" s="12">
         <v>0.75</v>
       </c>
-      <c r="H43" s="12">
+      <c r="H43" s="11">
         <v>0.375</v>
       </c>
       <c r="I43" s="12">
         <v>0.75</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="11">
         <v>0.375</v>
       </c>
       <c r="K43" s="12">
         <v>0.75</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="11">
         <v>0.375</v>
       </c>
       <c r="M43" s="12">
         <v>0.75</v>
       </c>
-      <c r="N43" s="12">
+      <c r="N43" s="11">
         <v>0.375</v>
       </c>
       <c r="O43" s="12">
         <v>0.75</v>
       </c>
-      <c r="P43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S43" s="10"/>
+      <c r="P43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S43" s="14"/>
     </row>
     <row r="44" ht="16" spans="1:19">
       <c r="A44" s="10">
         <v>10329224</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G44" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I44" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J44" s="12">
+      <c r="J44" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K44" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M44" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N44" s="12">
+      <c r="N44" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O44" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S44" s="10"/>
+      <c r="P44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S44" s="14"/>
     </row>
     <row r="45" ht="16" spans="1:19">
       <c r="A45" s="10">
         <v>10331623</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="D45" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>0.375</v>
       </c>
       <c r="G45" s="12">
         <v>0.75</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="11">
         <v>0.375</v>
       </c>
       <c r="I45" s="12">
         <v>0.75</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="11">
         <v>0.375</v>
       </c>
       <c r="K45" s="12">
         <v>0.75</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="11">
         <v>0.375</v>
       </c>
       <c r="M45" s="12">
         <v>0.75</v>
       </c>
-      <c r="N45" s="12">
+      <c r="N45" s="11">
         <v>0.375</v>
       </c>
       <c r="O45" s="12">
         <v>0.75</v>
       </c>
-      <c r="P45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S45" s="10"/>
+      <c r="P45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S45" s="14"/>
     </row>
     <row r="46" ht="16" spans="1:19">
       <c r="A46" s="10">
         <v>10331624</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>0.375</v>
       </c>
       <c r="G46" s="12">
         <v>0.75</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>0.375</v>
       </c>
       <c r="I46" s="12">
         <v>0.75</v>
       </c>
-      <c r="J46" s="12">
+      <c r="J46" s="11">
         <v>0.375</v>
       </c>
       <c r="K46" s="12">
         <v>0.75</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <v>0.375</v>
       </c>
       <c r="M46" s="12">
         <v>0.75</v>
       </c>
-      <c r="N46" s="12">
+      <c r="N46" s="11">
         <v>0.375</v>
       </c>
       <c r="O46" s="12">
         <v>0.75</v>
       </c>
-      <c r="P46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S46" s="10"/>
+      <c r="P46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S46" s="14"/>
     </row>
     <row r="47" ht="16" spans="1:19">
       <c r="A47" s="10">
         <v>10331626</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="11" t="s">
+      <c r="D47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <v>0.375</v>
       </c>
       <c r="G47" s="12">
         <v>0.75</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="11">
         <v>0.375</v>
       </c>
       <c r="I47" s="12">
         <v>0.75</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <v>0.375</v>
       </c>
       <c r="K47" s="12">
         <v>0.75</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="11">
         <v>0.375</v>
       </c>
       <c r="M47" s="12">
         <v>0.75</v>
       </c>
-      <c r="N47" s="12">
+      <c r="N47" s="11">
         <v>0.375</v>
       </c>
       <c r="O47" s="12">
         <v>0.75</v>
       </c>
-      <c r="P47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S47" s="10"/>
+      <c r="P47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q47" s="14"/>
+      <c r="R47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S47" s="14"/>
     </row>
     <row r="48" ht="16" spans="1:19">
       <c r="A48" s="10">
         <v>10323640</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="11" t="s">
+      <c r="E48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="11">
         <v>0.375</v>
       </c>
       <c r="G48" s="12">
         <v>0.75</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="11">
         <v>0.375</v>
       </c>
       <c r="I48" s="12">
         <v>0.75</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>0.375</v>
       </c>
       <c r="K48" s="12">
         <v>0.75</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <v>0.375</v>
       </c>
       <c r="M48" s="12">
         <v>0.75</v>
       </c>
-      <c r="N48" s="12">
+      <c r="N48" s="11">
         <v>0.375</v>
       </c>
       <c r="O48" s="12">
         <v>0.75</v>
       </c>
-      <c r="P48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S48" s="10"/>
+      <c r="P48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q48" s="14"/>
+      <c r="R48" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S48" s="14"/>
     </row>
     <row r="49" ht="16" spans="1:19">
       <c r="A49" s="10">
         <v>10318871</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G49" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H49" s="12">
+      <c r="H49" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I49" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K49" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L49" s="12">
+      <c r="L49" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M49" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N49" s="12">
+      <c r="N49" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O49" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S49" s="10"/>
+      <c r="P49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S49" s="14"/>
     </row>
     <row r="50" ht="16" spans="1:19">
       <c r="A50" s="10">
         <v>10319079</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D50" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="11">
         <v>0.375</v>
       </c>
       <c r="G50" s="12">
         <v>0.75</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="11">
         <v>0.375</v>
       </c>
       <c r="I50" s="12">
         <v>0.75</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <v>0.375</v>
       </c>
       <c r="K50" s="12">
         <v>0.75</v>
       </c>
-      <c r="L50" s="12">
+      <c r="L50" s="11">
         <v>0.375</v>
       </c>
       <c r="M50" s="12">
         <v>0.75</v>
       </c>
-      <c r="N50" s="12">
+      <c r="N50" s="11">
         <v>0.375</v>
       </c>
       <c r="O50" s="12">
         <v>0.75</v>
       </c>
-      <c r="P50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S50" s="10"/>
+      <c r="P50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S50" s="14"/>
     </row>
     <row r="51" ht="16" spans="1:19">
       <c r="A51" s="10">
         <v>10318869</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>0.375</v>
       </c>
       <c r="G51" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="11">
         <v>0.375</v>
       </c>
       <c r="I51" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="11">
         <v>0.375</v>
       </c>
       <c r="K51" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="L51" s="12">
+      <c r="L51" s="11">
         <v>0.375</v>
       </c>
       <c r="M51" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="N51" s="12">
+      <c r="N51" s="11">
         <v>0.375</v>
       </c>
       <c r="O51" s="12">
         <v>0.708333333333333</v>
       </c>
-      <c r="P51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S51" s="10"/>
+      <c r="P51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S51" s="14"/>
     </row>
     <row r="52" ht="16" spans="1:19">
       <c r="A52" s="10">
         <v>10318866</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="D52" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>0.375</v>
       </c>
       <c r="G52" s="12">
         <v>0.75</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="11">
         <v>0.375</v>
       </c>
       <c r="I52" s="12">
         <v>0.75</v>
       </c>
-      <c r="J52" s="12">
+      <c r="J52" s="11">
         <v>0.375</v>
       </c>
       <c r="K52" s="12">
         <v>0.75</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <v>0.375</v>
       </c>
       <c r="M52" s="12">
         <v>0.75</v>
       </c>
-      <c r="N52" s="12">
+      <c r="N52" s="11">
         <v>0.375</v>
       </c>
       <c r="O52" s="12">
         <v>0.75</v>
       </c>
-      <c r="P52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S52" s="10"/>
+      <c r="P52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S52" s="14"/>
     </row>
     <row r="53" ht="16" spans="1:19">
       <c r="A53" s="10">
         <v>10318880</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D53" s="11" t="s">
+      <c r="D53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E53" s="11" t="s">
+      <c r="E53" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G53" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H53" s="12">
+      <c r="H53" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I53" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K53" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M53" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N53" s="12">
+      <c r="N53" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O53" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S53" s="10"/>
+      <c r="P53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S53" s="14"/>
     </row>
     <row r="54" ht="16" spans="1:19">
       <c r="A54" s="10">
         <v>10318890</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D54" s="11" t="s">
+      <c r="D54" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="11" t="s">
+      <c r="E54" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>0.375</v>
       </c>
       <c r="G54" s="12">
         <v>0.75</v>
       </c>
-      <c r="H54" s="12">
+      <c r="H54" s="11">
         <v>0.375</v>
       </c>
       <c r="I54" s="12">
         <v>0.75</v>
       </c>
-      <c r="J54" s="12">
+      <c r="J54" s="11">
         <v>0.375</v>
       </c>
       <c r="K54" s="12">
         <v>0.75</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="11">
         <v>0.375</v>
       </c>
       <c r="M54" s="12">
         <v>0.75</v>
       </c>
-      <c r="N54" s="12">
+      <c r="N54" s="11">
         <v>0.375</v>
       </c>
       <c r="O54" s="12">
         <v>0.75</v>
       </c>
-      <c r="P54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S54" s="10"/>
+      <c r="P54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S54" s="14"/>
     </row>
     <row r="55" ht="16" spans="1:19">
       <c r="A55" s="10">
         <v>10323622</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G55" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I55" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J55" s="12">
+      <c r="J55" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K55" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M55" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N55" s="12">
+      <c r="N55" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O55" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S55" s="10"/>
+      <c r="P55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S55" s="14"/>
     </row>
     <row r="56" ht="16" spans="1:19">
       <c r="A56" s="10">
         <v>10323629</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D56" s="11" t="s">
+      <c r="D56" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>0.375</v>
       </c>
       <c r="G56" s="12">
         <v>0.75</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="11">
         <v>0.375</v>
       </c>
       <c r="I56" s="12">
         <v>0.75</v>
       </c>
-      <c r="J56" s="12">
+      <c r="J56" s="11">
         <v>0.375</v>
       </c>
       <c r="K56" s="12">
         <v>0.75</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="11">
         <v>0.375</v>
       </c>
       <c r="M56" s="12">
         <v>0.75</v>
       </c>
-      <c r="N56" s="12">
+      <c r="N56" s="11">
         <v>0.375</v>
       </c>
       <c r="O56" s="12">
         <v>0.75</v>
       </c>
-      <c r="P56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S56" s="10"/>
+      <c r="P56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q56" s="14"/>
+      <c r="R56" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S56" s="14"/>
     </row>
     <row r="57" ht="16" spans="1:19">
       <c r="A57" s="10">
         <v>10323632</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>0.375</v>
       </c>
       <c r="G57" s="12">
         <v>0.75</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="11">
         <v>0.375</v>
       </c>
       <c r="I57" s="12">
         <v>0.75</v>
       </c>
-      <c r="J57" s="12">
+      <c r="J57" s="11">
         <v>0.375</v>
       </c>
       <c r="K57" s="12">
         <v>0.75</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <v>0.375</v>
       </c>
       <c r="M57" s="12">
         <v>0.75</v>
       </c>
-      <c r="N57" s="12">
+      <c r="N57" s="11">
         <v>0.375</v>
       </c>
       <c r="O57" s="12">
         <v>0.75</v>
       </c>
-      <c r="P57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S57" s="10"/>
+      <c r="P57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q57" s="14"/>
+      <c r="R57" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S57" s="14"/>
     </row>
     <row r="58" ht="16" spans="1:19">
       <c r="A58" s="10">
         <v>10323634</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D58" s="11" t="s">
+      <c r="D58" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="E58" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G58" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I58" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J58" s="12">
+      <c r="J58" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K58" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M58" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N58" s="12">
+      <c r="N58" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O58" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S58" s="10"/>
+      <c r="P58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q58" s="14"/>
+      <c r="R58" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S58" s="14"/>
     </row>
     <row r="59" ht="16" spans="1:19">
       <c r="A59" s="10">
         <v>10323638</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D59" s="11" t="s">
+      <c r="D59" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>0.375</v>
       </c>
       <c r="G59" s="12">
         <v>0.75</v>
       </c>
-      <c r="H59" s="12">
+      <c r="H59" s="11">
         <v>0.375</v>
       </c>
       <c r="I59" s="12">
         <v>0.75</v>
       </c>
-      <c r="J59" s="12">
+      <c r="J59" s="11">
         <v>0.375</v>
       </c>
       <c r="K59" s="12">
         <v>0.75</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="11">
         <v>0.375</v>
       </c>
       <c r="M59" s="12">
         <v>0.75</v>
       </c>
-      <c r="N59" s="12">
+      <c r="N59" s="11">
         <v>0.375</v>
       </c>
       <c r="O59" s="12">
         <v>0.75</v>
       </c>
-      <c r="P59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S59" s="10"/>
+      <c r="P59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q59" s="14"/>
+      <c r="R59" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S59" s="14"/>
     </row>
     <row r="60" ht="16" spans="1:19">
       <c r="A60" s="10">
         <v>10323646</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="D60" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="E60" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>0.375</v>
       </c>
       <c r="G60" s="12">
         <v>0.75</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>0.375</v>
       </c>
       <c r="I60" s="12">
         <v>0.75</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="11">
         <v>0.375</v>
       </c>
       <c r="K60" s="12">
         <v>0.75</v>
       </c>
-      <c r="L60" s="12">
+      <c r="L60" s="11">
         <v>0.375</v>
       </c>
       <c r="M60" s="12">
         <v>0.75</v>
       </c>
-      <c r="N60" s="12">
+      <c r="N60" s="11">
         <v>0.375</v>
       </c>
       <c r="O60" s="12">
         <v>0.75</v>
       </c>
-      <c r="P60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S60" s="10"/>
+      <c r="P60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S60" s="14"/>
     </row>
     <row r="61" ht="16" spans="1:19">
       <c r="A61" s="10">
         <v>10329222</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D61" s="11" t="s">
+      <c r="D61" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>0.375</v>
       </c>
       <c r="G61" s="12">
         <v>0.75</v>
       </c>
-      <c r="H61" s="12">
+      <c r="H61" s="11">
         <v>0.375</v>
       </c>
       <c r="I61" s="12">
         <v>0.75</v>
       </c>
-      <c r="J61" s="12">
+      <c r="J61" s="11">
         <v>0.375</v>
       </c>
       <c r="K61" s="12">
         <v>0.75</v>
       </c>
-      <c r="L61" s="12">
+      <c r="L61" s="11">
         <v>0.375</v>
       </c>
       <c r="M61" s="12">
         <v>0.75</v>
       </c>
-      <c r="N61" s="12">
+      <c r="N61" s="11">
         <v>0.375</v>
       </c>
       <c r="O61" s="12">
         <v>0.75</v>
       </c>
-      <c r="P61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S61" s="10"/>
+      <c r="P61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S61" s="14"/>
     </row>
     <row r="62" ht="16" spans="1:19">
       <c r="A62" s="10">
         <v>10329553</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>0.375</v>
       </c>
       <c r="G62" s="12">
         <v>0.75</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="11">
         <v>0.375</v>
       </c>
       <c r="I62" s="12">
         <v>0.75</v>
       </c>
-      <c r="J62" s="12">
+      <c r="J62" s="11">
         <v>0.375</v>
       </c>
       <c r="K62" s="12">
         <v>0.75</v>
       </c>
-      <c r="L62" s="12">
+      <c r="L62" s="11">
         <v>0.375</v>
       </c>
       <c r="M62" s="12">
         <v>0.75</v>
       </c>
-      <c r="N62" s="12">
+      <c r="N62" s="11">
         <v>0.375</v>
       </c>
       <c r="O62" s="12">
         <v>0.75</v>
       </c>
-      <c r="P62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S62" s="10"/>
+      <c r="P62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S62" s="14"/>
     </row>
     <row r="63" ht="16" spans="1:19">
       <c r="A63" s="10">
         <v>10323639</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="D63" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>0.375</v>
       </c>
       <c r="G63" s="12">
         <v>0.75</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H63" s="11">
         <v>0.375</v>
       </c>
       <c r="I63" s="12">
         <v>0.75</v>
       </c>
-      <c r="J63" s="12">
+      <c r="J63" s="11">
         <v>0.375</v>
       </c>
       <c r="K63" s="12">
         <v>0.75</v>
       </c>
-      <c r="L63" s="12">
+      <c r="L63" s="11">
         <v>0.375</v>
       </c>
       <c r="M63" s="12">
         <v>0.75</v>
       </c>
-      <c r="N63" s="12">
+      <c r="N63" s="11">
         <v>0.375</v>
       </c>
       <c r="O63" s="12">
         <v>0.75</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S63" s="10"/>
+      <c r="P63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S63" s="14"/>
     </row>
     <row r="64" ht="16" spans="1:19">
       <c r="A64" s="10">
         <v>10329243</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="11" t="s">
+      <c r="D64" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>0.375</v>
       </c>
       <c r="G64" s="12">
         <v>0.75</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="11">
         <v>0.375</v>
       </c>
       <c r="I64" s="12">
         <v>0.75</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="11">
         <v>0.375</v>
       </c>
       <c r="K64" s="12">
         <v>0.75</v>
       </c>
-      <c r="L64" s="12">
+      <c r="L64" s="11">
         <v>0.375</v>
       </c>
       <c r="M64" s="12">
         <v>0.75</v>
       </c>
-      <c r="N64" s="12">
+      <c r="N64" s="11">
         <v>0.375</v>
       </c>
       <c r="O64" s="12">
         <v>0.75</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S64" s="10"/>
+      <c r="P64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S64" s="14"/>
     </row>
     <row r="65" ht="16" spans="1:19">
       <c r="A65" s="10">
         <v>10329211</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D65" s="11" t="s">
+      <c r="D65" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E65" s="11" t="s">
+      <c r="E65" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G65" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I65" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K65" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L65" s="12">
+      <c r="L65" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M65" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N65" s="12">
+      <c r="N65" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O65" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S65" s="10"/>
+      <c r="P65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S65" s="14"/>
     </row>
     <row r="66" ht="16" spans="1:19">
       <c r="A66" s="10">
         <v>10329524</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D66" s="11" t="s">
+      <c r="D66" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="E66" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>0.375</v>
       </c>
       <c r="G66" s="12">
         <v>0.75</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="11">
         <v>0.375</v>
       </c>
       <c r="I66" s="12">
         <v>0.75</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="11">
         <v>0.375</v>
       </c>
       <c r="K66" s="12">
         <v>0.75</v>
       </c>
-      <c r="L66" s="12">
+      <c r="L66" s="11">
         <v>0.375</v>
       </c>
       <c r="M66" s="12">
         <v>0.75</v>
       </c>
-      <c r="N66" s="12">
+      <c r="N66" s="11">
         <v>0.375</v>
       </c>
       <c r="O66" s="12">
         <v>0.75</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S66" s="10"/>
+      <c r="P66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S66" s="14"/>
     </row>
     <row r="67" ht="16" spans="1:19">
       <c r="A67" s="10">
         <v>10329225</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D67" s="11" t="s">
+      <c r="D67" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E67" s="11" t="s">
+      <c r="E67" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>0.375</v>
       </c>
       <c r="G67" s="12">
         <v>0.75</v>
       </c>
-      <c r="H67" s="12">
+      <c r="H67" s="11">
         <v>0.375</v>
       </c>
       <c r="I67" s="12">
         <v>0.75</v>
       </c>
-      <c r="J67" s="12">
+      <c r="J67" s="11">
         <v>0.375</v>
       </c>
       <c r="K67" s="12">
         <v>0.75</v>
       </c>
-      <c r="L67" s="12">
+      <c r="L67" s="11">
         <v>0.375</v>
       </c>
       <c r="M67" s="12">
         <v>0.75</v>
       </c>
-      <c r="N67" s="12">
+      <c r="N67" s="11">
         <v>0.375</v>
       </c>
       <c r="O67" s="12">
         <v>0.75</v>
       </c>
-      <c r="P67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S67" s="10"/>
+      <c r="P67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S67" s="14"/>
     </row>
     <row r="68" ht="16" spans="1:19">
       <c r="A68" s="10">
         <v>10329226</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D68" s="11" t="s">
+      <c r="D68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E68" s="11" t="s">
+      <c r="E68" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>0.375</v>
       </c>
       <c r="G68" s="12">
         <v>0.75</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="11">
         <v>0.375</v>
       </c>
       <c r="I68" s="12">
         <v>0.75</v>
       </c>
-      <c r="J68" s="12">
+      <c r="J68" s="11">
         <v>0.375</v>
       </c>
       <c r="K68" s="12">
         <v>0.75</v>
       </c>
-      <c r="L68" s="12">
+      <c r="L68" s="11">
         <v>0.375</v>
       </c>
       <c r="M68" s="12">
         <v>0.75</v>
       </c>
-      <c r="N68" s="12">
+      <c r="N68" s="11">
         <v>0.375</v>
       </c>
       <c r="O68" s="12">
         <v>0.75</v>
       </c>
-      <c r="P68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S68" s="10"/>
+      <c r="P68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S68" s="14"/>
     </row>
     <row r="69" ht="16" spans="1:19">
       <c r="A69" s="10">
         <v>10329571</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D69" s="11" t="s">
+      <c r="D69" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="E69" s="11" t="s">
+      <c r="E69" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G69" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H69" s="12">
+      <c r="H69" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I69" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J69" s="12">
+      <c r="J69" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K69" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L69" s="12">
+      <c r="L69" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M69" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N69" s="12">
+      <c r="N69" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O69" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S69" s="10"/>
+      <c r="P69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S69" s="14"/>
     </row>
     <row r="70" ht="16" spans="1:19">
       <c r="A70" s="10">
         <v>10329227</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D70" s="11" t="s">
+      <c r="D70" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G70" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H70" s="12">
+      <c r="H70" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I70" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J70" s="12">
+      <c r="J70" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K70" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L70" s="12">
+      <c r="L70" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M70" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N70" s="12">
+      <c r="N70" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O70" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S70" s="10"/>
+      <c r="P70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S70" s="14"/>
     </row>
     <row r="71" ht="16" spans="1:19">
       <c r="A71" s="10">
         <v>10329238</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D71" s="11" t="s">
+      <c r="D71" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E71" s="11" t="s">
+      <c r="E71" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>0.375</v>
       </c>
       <c r="G71" s="12">
         <v>0.75</v>
       </c>
-      <c r="H71" s="12">
+      <c r="H71" s="11">
         <v>0.375</v>
       </c>
       <c r="I71" s="12">
         <v>0.75</v>
       </c>
-      <c r="J71" s="12">
+      <c r="J71" s="11">
         <v>0.375</v>
       </c>
       <c r="K71" s="12">
         <v>0.75</v>
       </c>
-      <c r="L71" s="12">
+      <c r="L71" s="11">
         <v>0.375</v>
       </c>
       <c r="M71" s="12">
         <v>0.75</v>
       </c>
-      <c r="N71" s="12">
+      <c r="N71" s="11">
         <v>0.375</v>
       </c>
       <c r="O71" s="12">
         <v>0.75</v>
       </c>
-      <c r="P71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S71" s="10"/>
+      <c r="P71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S71" s="14"/>
     </row>
     <row r="72" ht="16" spans="1:19">
       <c r="A72" s="10">
         <v>10329239</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D72" s="11" t="s">
+      <c r="D72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="11" t="s">
+      <c r="E72" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G72" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H72" s="12">
+      <c r="H72" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I72" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J72" s="12">
+      <c r="J72" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K72" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L72" s="12">
+      <c r="L72" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M72" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N72" s="12">
+      <c r="N72" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O72" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S72" s="10"/>
+      <c r="P72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S72" s="14"/>
     </row>
     <row r="73" ht="16" spans="1:19">
       <c r="A73" s="10">
         <v>10329246</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="11" t="s">
+      <c r="D73" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E73" s="11" t="s">
+      <c r="E73" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F73" s="12">
+      <c r="F73" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="G73" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="H73" s="12">
+      <c r="H73" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="I73" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="J73" s="12">
+      <c r="J73" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="K73" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="L73" s="12">
+      <c r="L73" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="M73" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="N73" s="12">
+      <c r="N73" s="11">
         <v>0.416666666666667</v>
       </c>
       <c r="O73" s="12">
         <v>0.791666666666667</v>
       </c>
-      <c r="P73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S73" s="10"/>
+      <c r="P73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q73" s="14"/>
+      <c r="R73" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S73" s="14"/>
     </row>
     <row r="74" ht="16" spans="1:19">
       <c r="A74" s="10">
         <v>10330114</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D74" s="11" t="s">
+      <c r="D74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="E74" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="11">
         <v>0.375</v>
       </c>
       <c r="G74" s="12">
         <v>0.75</v>
       </c>
-      <c r="H74" s="12">
+      <c r="H74" s="11">
         <v>0.375</v>
       </c>
       <c r="I74" s="12">
         <v>0.75</v>
       </c>
-      <c r="J74" s="12">
+      <c r="J74" s="11">
         <v>0.375</v>
       </c>
       <c r="K74" s="12">
         <v>0.75</v>
       </c>
-      <c r="L74" s="12">
+      <c r="L74" s="11">
         <v>0.375</v>
       </c>
       <c r="M74" s="12">
         <v>0.75</v>
       </c>
-      <c r="N74" s="12">
+      <c r="N74" s="11">
         <v>0.375</v>
       </c>
       <c r="O74" s="12">
         <v>0.75</v>
       </c>
-      <c r="P74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S74" s="10"/>
+      <c r="P74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S74" s="14"/>
     </row>
     <row r="75" ht="16" spans="1:19">
       <c r="A75" s="10">
         <v>10330123</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="E75" s="11" t="s">
+      <c r="E75" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="F75" s="12">
+      <c r="F75" s="11">
         <v>0.375</v>
       </c>
       <c r="G75" s="12">
         <v>0.75</v>
       </c>
-      <c r="H75" s="12">
+      <c r="H75" s="11">
         <v>0.375</v>
       </c>
       <c r="I75" s="12">
         <v>0.75</v>
       </c>
-      <c r="J75" s="12">
+      <c r="J75" s="11">
         <v>0.375</v>
       </c>
       <c r="K75" s="12">
         <v>0.75</v>
       </c>
-      <c r="L75" s="12">
+      <c r="L75" s="11">
         <v>0.375</v>
       </c>
       <c r="M75" s="12">
         <v>0.75</v>
       </c>
-      <c r="N75" s="12">
+      <c r="N75" s="11">
         <v>0.375</v>
       </c>
       <c r="O75" s="12">
         <v>0.75</v>
       </c>
-      <c r="P75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S75" s="10"/>
+      <c r="P75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S75" s="14"/>
     </row>
     <row r="76" ht="16" spans="1:19">
       <c r="A76" s="10">
         <v>10316835</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="11" t="s">
+      <c r="D76" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F76" s="12">
+      <c r="F76" s="11">
         <v>0.625</v>
       </c>
       <c r="G76" s="12">
         <v>0</v>
       </c>
-      <c r="H76" s="12">
+      <c r="H76" s="11">
         <v>0.625</v>
       </c>
       <c r="I76" s="12">
         <v>0</v>
       </c>
-      <c r="J76" s="12">
+      <c r="J76" s="11">
         <v>0.625</v>
       </c>
       <c r="K76" s="12">
         <v>0</v>
       </c>
-      <c r="L76" s="12">
+      <c r="L76" s="11">
         <v>0.625</v>
       </c>
       <c r="M76" s="12">
         <v>0</v>
       </c>
-      <c r="N76" s="12">
+      <c r="N76" s="11">
         <v>0.625</v>
       </c>
       <c r="O76" s="12">
         <v>0</v>
       </c>
-      <c r="P76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S76" s="10"/>
+      <c r="P76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S76" s="14"/>
     </row>
     <row r="77" ht="16" spans="1:19">
       <c r="A77" s="10">
         <v>10318910</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="11" t="s">
+      <c r="D77" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="E77" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="11">
         <v>0.625</v>
       </c>
       <c r="G77" s="12">
         <v>0</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="11">
         <v>0.625</v>
       </c>
       <c r="I77" s="12">
         <v>0</v>
       </c>
-      <c r="J77" s="12">
+      <c r="J77" s="11">
         <v>0.625</v>
       </c>
       <c r="K77" s="12">
         <v>0</v>
       </c>
-      <c r="L77" s="12">
+      <c r="L77" s="11">
         <v>0.625</v>
       </c>
       <c r="M77" s="12">
         <v>0</v>
       </c>
-      <c r="N77" s="12">
+      <c r="N77" s="11">
         <v>0.625</v>
       </c>
       <c r="O77" s="12">
         <v>0</v>
       </c>
-      <c r="P77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S77" s="10"/>
+      <c r="P77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q77" s="14"/>
+      <c r="R77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S77" s="14"/>
     </row>
     <row r="78" ht="16" spans="1:19">
       <c r="A78" s="10">
         <v>10318924</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C78" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="11" t="s">
+      <c r="D78" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="11">
         <v>0.75</v>
       </c>
       <c r="G78" s="12">
         <v>0.125</v>
       </c>
-      <c r="H78" s="12">
+      <c r="H78" s="11">
         <v>0.75</v>
       </c>
       <c r="I78" s="12">
         <v>0.125</v>
       </c>
-      <c r="J78" s="12">
+      <c r="J78" s="11">
         <v>0.75</v>
       </c>
       <c r="K78" s="12">
         <v>0.125</v>
       </c>
-      <c r="L78" s="12">
+      <c r="L78" s="11">
         <v>0.75</v>
       </c>
       <c r="M78" s="12">
         <v>0.125</v>
       </c>
-      <c r="N78" s="12">
+      <c r="N78" s="11">
         <v>0.75</v>
       </c>
       <c r="O78" s="12">
         <v>0.125</v>
       </c>
-      <c r="P78" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S78" s="10"/>
+      <c r="P78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q78" s="14"/>
+      <c r="R78" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S78" s="14"/>
     </row>
     <row r="79" ht="16" spans="1:19">
       <c r="A79" s="10">
         <v>10324742</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D79" s="11" t="s">
+      <c r="D79" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E79" s="11" t="s">
+      <c r="E79" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="11">
         <v>0.625</v>
       </c>
       <c r="G79" s="12">
         <v>0</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="11">
         <v>0.625</v>
       </c>
       <c r="I79" s="12">
         <v>0</v>
       </c>
-      <c r="J79" s="12">
+      <c r="J79" s="11">
         <v>0.625</v>
       </c>
       <c r="K79" s="12">
         <v>0</v>
       </c>
-      <c r="L79" s="12">
+      <c r="L79" s="11">
         <v>0.625</v>
       </c>
       <c r="M79" s="12">
         <v>0</v>
       </c>
-      <c r="N79" s="12">
+      <c r="N79" s="11">
         <v>0.625</v>
       </c>
       <c r="O79" s="12">
         <v>0</v>
       </c>
-      <c r="P79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S79" s="10"/>
+      <c r="P79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q79" s="14"/>
+      <c r="R79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S79" s="14"/>
     </row>
     <row r="80" ht="16" spans="1:19">
       <c r="A80" s="10">
         <v>10324748</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="11" t="s">
+      <c r="D80" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E80" s="11" t="s">
+      <c r="E80" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="11">
         <v>0.666666666666667</v>
       </c>
       <c r="G80" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="11">
         <v>0.666666666666667</v>
       </c>
       <c r="I80" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="J80" s="12">
+      <c r="J80" s="11">
         <v>0.666666666666667</v>
       </c>
       <c r="K80" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="L80" s="12">
+      <c r="L80" s="11">
         <v>0.666666666666667</v>
       </c>
       <c r="M80" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="N80" s="12">
+      <c r="N80" s="11">
         <v>0.666666666666667</v>
       </c>
       <c r="O80" s="12">
         <v>0.0416666666666667</v>
       </c>
-      <c r="P80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S80" s="10"/>
+      <c r="P80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q80" s="14"/>
+      <c r="R80" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S80" s="14"/>
     </row>
     <row r="81" ht="16" spans="1:19">
       <c r="A81" s="10">
         <v>10329888</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D81" s="11" t="s">
+      <c r="D81" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="E81" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="F81" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G81" s="11" t="s">
+      <c r="G81" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H81" s="11" t="s">
+      <c r="H81" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="I81" s="11" t="s">
+      <c r="I81" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="J81" s="11" t="s">
+      <c r="J81" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="K81" s="11" t="s">
+      <c r="K81" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="L81" s="11" t="s">
+      <c r="L81" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="M81" s="11" t="s">
+      <c r="M81" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="N81" s="11" t="s">
+      <c r="N81" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="O81" s="11" t="s">
+      <c r="O81" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="P81" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S81" s="10"/>
+      <c r="P81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S81" s="14"/>
     </row>
     <row r="82" ht="16" spans="1:19">
       <c r="A82" s="10">
         <v>10329901</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="11" t="s">
+      <c r="D82" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E82" s="11" t="s">
+      <c r="E82" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="11">
         <v>0.625</v>
       </c>
       <c r="G82" s="12">
         <v>0</v>
       </c>
-      <c r="H82" s="12">
+      <c r="H82" s="11">
         <v>0.625</v>
       </c>
       <c r="I82" s="12">
         <v>0</v>
       </c>
-      <c r="J82" s="12">
+      <c r="J82" s="11">
         <v>0.625</v>
       </c>
       <c r="K82" s="12">
         <v>0</v>
       </c>
-      <c r="L82" s="12">
+      <c r="L82" s="11">
         <v>0.625</v>
       </c>
       <c r="M82" s="12">
         <v>0</v>
       </c>
-      <c r="N82" s="12">
+      <c r="N82" s="11">
         <v>0.625</v>
       </c>
       <c r="O82" s="12">
         <v>0</v>
       </c>
-      <c r="P82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S82" s="10"/>
+      <c r="P82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q82" s="14"/>
+      <c r="R82" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S82" s="14"/>
     </row>
     <row r="83" ht="16" spans="1:19">
       <c r="A83" s="10">
         <v>10329910</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D83" s="11" t="s">
+      <c r="D83" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E83" s="11" t="s">
+      <c r="E83" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="11">
         <v>0.708333333333333</v>
       </c>
       <c r="G83" s="12">
         <v>0.0833333333333333</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="11">
         <v>0.708333333333333</v>
       </c>
       <c r="I83" s="12">
         <v>0.0833333333333333</v>
       </c>
-      <c r="J83" s="12">
+      <c r="J83" s="11">
         <v>0.708333333333333</v>
       </c>
       <c r="K83" s="12">
         <v>0.0833333333333333</v>
       </c>
-      <c r="L83" s="12">
+      <c r="L83" s="11">
         <v>0.708333333333333</v>
       </c>
       <c r="M83" s="12">
         <v>0.0833333333333333</v>
       </c>
-      <c r="N83" s="12">
+      <c r="N83" s="11">
         <v>0.708333333333333</v>
       </c>
       <c r="O83" s="12">
         <v>0.0833333333333333</v>
       </c>
-      <c r="P83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S83" s="10"/>
+      <c r="P83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q83" s="14"/>
+      <c r="R83" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S83" s="14"/>
     </row>
     <row r="84" ht="16" spans="1:19">
       <c r="A84" s="10">
         <v>10329913</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="11" t="s">
+      <c r="D84" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E84" s="11" t="s">
+      <c r="E84" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="11">
         <v>0.75</v>
       </c>
       <c r="G84" s="12">
         <v>0.125</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="11">
         <v>0.75</v>
       </c>
       <c r="I84" s="12">
         <v>0.125</v>
       </c>
-      <c r="J84" s="12">
+      <c r="J84" s="11">
         <v>0.75</v>
       </c>
       <c r="K84" s="12">
         <v>0.125</v>
       </c>
-      <c r="L84" s="12">
+      <c r="L84" s="11">
         <v>0.75</v>
       </c>
       <c r="M84" s="12">
         <v>0.125</v>
       </c>
-      <c r="N84" s="12">
+      <c r="N84" s="11">
         <v>0.75</v>
       </c>
       <c r="O84" s="12">
         <v>0.125</v>
       </c>
-      <c r="P84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S84" s="10"/>
+      <c r="P84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q84" s="14"/>
+      <c r="R84" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S84" s="14"/>
     </row>
     <row r="85" ht="16" spans="1:19">
       <c r="A85" s="10">
         <v>10329902</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D85" s="11" t="s">
+      <c r="D85" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="E85" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="11">
         <v>0.75</v>
       </c>
       <c r="G85" s="12">
         <v>0.125</v>
       </c>
-      <c r="H85" s="12">
+      <c r="H85" s="11">
         <v>0.75</v>
       </c>
       <c r="I85" s="12">
         <v>0.125</v>
       </c>
-      <c r="J85" s="12">
+      <c r="J85" s="11">
         <v>0.75</v>
       </c>
       <c r="K85" s="12">
         <v>0.125</v>
       </c>
-      <c r="L85" s="12">
+      <c r="L85" s="11">
         <v>0.75</v>
       </c>
       <c r="M85" s="12">
         <v>0.125</v>
       </c>
-      <c r="N85" s="12">
+      <c r="N85" s="11">
         <v>0.75</v>
       </c>
       <c r="O85" s="12">
         <v>0.125</v>
       </c>
-      <c r="P85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S85" s="10"/>
+      <c r="P85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S85" s="14"/>
     </row>
     <row r="86" ht="16" spans="1:19">
       <c r="A86" s="10">
         <v>10330128</v>
       </c>
-      <c r="B86" s="11" t="s">
+      <c r="B86" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D86" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E86" s="11" t="s">
+      <c r="E86" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="F86" s="12">
+      <c r="F86" s="11">
         <v>0.625</v>
       </c>
       <c r="G86" s="12">
         <v>0</v>
       </c>
-      <c r="H86" s="12">
+      <c r="H86" s="11">
         <v>0.625</v>
       </c>
       <c r="I86" s="12">
         <v>0</v>
       </c>
-      <c r="J86" s="12">
+      <c r="J86" s="11">
         <v>0.625</v>
       </c>
       <c r="K86" s="12">
         <v>0</v>
       </c>
-      <c r="L86" s="12">
+      <c r="L86" s="11">
         <v>0.625</v>
       </c>
       <c r="M86" s="12">
         <v>0</v>
       </c>
-      <c r="N86" s="12">
+      <c r="N86" s="11">
         <v>0.625</v>
       </c>
       <c r="O86" s="12">
         <v>0</v>
       </c>
-      <c r="P86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S86" s="10"/>
+      <c r="P86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S86" s="14"/>
     </row>
     <row r="87" ht="16" spans="1:19">
       <c r="A87" s="10">
         <v>10330141</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E87" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="11">
         <v>0.625</v>
       </c>
       <c r="G87" s="12">
         <v>0</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="11">
         <v>0.625</v>
       </c>
       <c r="I87" s="12">
         <v>0</v>
       </c>
-      <c r="J87" s="12">
+      <c r="J87" s="11">
         <v>0.625</v>
       </c>
       <c r="K87" s="12">
         <v>0</v>
       </c>
-      <c r="L87" s="12">
+      <c r="L87" s="11">
         <v>0.625</v>
       </c>
       <c r="M87" s="12">
         <v>0</v>
       </c>
-      <c r="N87" s="12">
+      <c r="N87" s="11">
         <v>0.625</v>
       </c>
       <c r="O87" s="12">
         <v>0</v>
       </c>
-      <c r="P87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S87" s="10"/>
+      <c r="P87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q87" s="14"/>
+      <c r="R87" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S87" s="14"/>
     </row>
     <row r="88" ht="16" spans="1:19">
       <c r="A88" s="10">
         <v>10330140</v>
       </c>
-      <c r="B88" s="11" t="s">
+      <c r="B88" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D88" s="11" t="s">
+      <c r="D88" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="E88" s="11" t="s">
+      <c r="E88" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F88" s="12">
+      <c r="F88" s="11">
         <v>0.625</v>
       </c>
       <c r="G88" s="12">
         <v>0</v>
       </c>
-      <c r="H88" s="12">
+      <c r="H88" s="11">
         <v>0.625</v>
       </c>
       <c r="I88" s="12">
         <v>0</v>
       </c>
-      <c r="J88" s="12">
+      <c r="J88" s="11">
         <v>0.625</v>
       </c>
       <c r="K88" s="12">
         <v>0</v>
       </c>
-      <c r="L88" s="12">
+      <c r="L88" s="11">
         <v>0.625</v>
       </c>
       <c r="M88" s="12">
         <v>0</v>
       </c>
-      <c r="N88" s="12">
+      <c r="N88" s="11">
         <v>0.625</v>
       </c>
       <c r="O88" s="12">
         <v>0</v>
       </c>
-      <c r="P88" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S88" s="10"/>
+      <c r="P88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q88" s="14"/>
+      <c r="R88" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S88" s="14"/>
     </row>
     <row r="89" ht="16" spans="1:19">
       <c r="A89" s="10">
         <v>10330144</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D89" s="11" t="s">
+      <c r="D89" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="E89" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89" s="11">
         <v>0.625</v>
       </c>
       <c r="G89" s="12">
         <v>0</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H89" s="11">
         <v>0.625</v>
       </c>
       <c r="I89" s="12">
         <v>0</v>
       </c>
-      <c r="J89" s="12">
+      <c r="J89" s="11">
         <v>0.625</v>
       </c>
       <c r="K89" s="12">
         <v>0</v>
       </c>
-      <c r="L89" s="12">
+      <c r="L89" s="11">
         <v>0.625</v>
       </c>
       <c r="M89" s="12">
         <v>0</v>
       </c>
-      <c r="N89" s="12">
+      <c r="N89" s="11">
         <v>0.625</v>
       </c>
       <c r="O89" s="12">
         <v>0</v>
       </c>
-      <c r="P89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="S89" s="10"/>
-    </row>
-    <row r="90" ht="15.25"/>
+      <c r="P89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q89" s="14"/>
+      <c r="R89" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="S89" s="14"/>
+    </row>
+    <row r="90" ht="14.75"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="186">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -6582,6 +6605,180 @@
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="R1:S1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="R89:S89"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>

--- a/Accounts-Schedules/Sonnen Weekly Schedule for Transportation 2025 .. (2).xlsx
+++ b/Accounts-Schedules/Sonnen Weekly Schedule for Transportation 2025 .. (2).xlsx
@@ -1702,17 +1702,18 @@
   <dimension ref="A1:S90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P60" sqref="P60:Q60"/>
+      <selection activeCell="L3" sqref="L3:M89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.275" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.3666666666667" style="3" customWidth="1"/>
+    <col min="1" max="1" width="10.3333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24" style="3" customWidth="1"/>
     <col min="3" max="3" width="20.275" style="3" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.2" style="3" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="21.5083333333333" style="3" hidden="1" customWidth="1"/>
-    <col min="6" max="19" width="12.275" style="3" customWidth="1"/>
+    <col min="6" max="14" width="11.1666666666667" style="3" customWidth="1"/>
+    <col min="15" max="19" width="12.275" style="3" customWidth="1"/>
     <col min="20" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>

--- a/Accounts-Schedules/Sonnen Weekly Schedule for Transportation 2025 .. (2).xlsx
+++ b/Accounts-Schedules/Sonnen Weekly Schedule for Transportation 2025 .. (2).xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="196">
   <si>
     <t>Employee ID</t>
   </si>
@@ -570,19 +570,65 @@
   </si>
   <si>
     <t>Rawan Medhat</t>
+  </si>
+  <si>
+    <t>Schichtplan</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
+  </si>
+  <si>
+    <t>TWW ID</t>
+  </si>
+  <si>
+    <t>Omar Ashraf</t>
+  </si>
+  <si>
+    <t>19:00 - 04:00</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>Mahmoud Abdelalim</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>Amen Abdalhay</t>
+  </si>
+  <si>
+    <t>10:00 - 19:00</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>04:00 - 13:00</t>
+  </si>
+  <si>
+    <t>13:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]h:mm\ AM/PM;@"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,6 +653,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -754,7 +807,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -794,6 +847,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7E1CD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1056,6 +1163,133 @@
       </top>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1175,85 +1409,58 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1262,50 +1469,77 @@
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1354,6 +1588,87 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="16" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1699,10 +2014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S90"/>
+  <dimension ref="A1:S100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:M89"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -6597,8 +6912,155 @@
       <c r="S89" s="14"/>
     </row>
     <row r="90" ht="14.75"/>
+    <row r="92" ht="14.75"/>
+    <row r="93" ht="14.75" spans="6:11">
+      <c r="F93" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="I93" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="J93" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="K93" s="33"/>
+    </row>
+    <row r="94" ht="15.25" spans="6:11">
+      <c r="F94" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G94" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="H94" s="22">
+        <v>30.05</v>
+      </c>
+      <c r="I94" s="22">
+        <v>31.05</v>
+      </c>
+      <c r="J94" s="34">
+        <v>1.06</v>
+      </c>
+      <c r="K94" s="35"/>
+    </row>
+    <row r="95" ht="16" spans="6:11">
+      <c r="F95" s="23">
+        <v>10333398</v>
+      </c>
+      <c r="G95" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="H95" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="I95" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="J95" s="36">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="K95" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" ht="15.25" spans="6:11">
+      <c r="F96" s="26">
+        <v>10333447</v>
+      </c>
+      <c r="G96" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="H96" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J96" s="38">
+        <v>0</v>
+      </c>
+      <c r="K96" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" ht="15.25" spans="6:11">
+      <c r="F97" s="26">
+        <v>10333590</v>
+      </c>
+      <c r="G97" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="H97" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J97" s="38">
+        <v>0</v>
+      </c>
+      <c r="K97" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="98" ht="15.25" spans="6:11">
+      <c r="F98" s="23">
+        <v>10306614</v>
+      </c>
+      <c r="G98" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="H98" s="29"/>
+      <c r="I98" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="37"/>
+    </row>
+    <row r="99" ht="15.25" spans="6:11">
+      <c r="F99" s="30">
+        <v>10318430</v>
+      </c>
+      <c r="G99" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="H99" s="29"/>
+      <c r="I99" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J99" s="41">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="K99" s="37" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" ht="15.25" spans="6:11">
+      <c r="F100" s="30">
+        <v>10318434</v>
+      </c>
+      <c r="G100" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H100" s="29"/>
+      <c r="I100" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="J100" s="43">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="K100" s="37" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="186">
+  <mergeCells count="189">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
@@ -6780,6 +7242,9 @@
     <mergeCell ref="R88:S88"/>
     <mergeCell ref="P89:Q89"/>
     <mergeCell ref="R89:S89"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="J94:K94"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
